--- a/Lab3_Project_Tracker_Rev2.xlsx
+++ b/Lab3_Project_Tracker_Rev2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\General\MSDS 7331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\space\Desktop\Data Mining\awesomedataminers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84D9BB-D539-42B7-95A5-B1EDFB1BD0C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Task Name</t>
   </si>
@@ -175,12 +176,15 @@
   </si>
   <si>
     <t>Identify CRISP DM Outline to follow in the project</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -403,6 +407,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -475,7 +488,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -513,7 +532,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -835,22 +860,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="7"/>
@@ -864,7 +889,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="80.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -896,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -926,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -942,7 +967,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -958,7 +983,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -974,39 +999,51 @@
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="21">
+        <v>43552</v>
+      </c>
+      <c r="D7" s="21">
+        <v>43554</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="21">
+        <v>43552</v>
+      </c>
+      <c r="D8" s="21">
+        <v>43554</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1022,7 +1059,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1038,7 +1075,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1054,7 +1091,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1070,7 +1107,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1086,7 +1123,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1102,7 +1139,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1118,7 +1155,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1134,7 +1171,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1150,7 +1187,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1166,7 +1203,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1182,7 +1219,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1198,7 +1235,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1214,7 +1251,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1230,7 +1267,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1246,7 +1283,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1262,7 +1299,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1278,7 +1315,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1294,7 +1331,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1310,7 +1347,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1326,7 +1363,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1342,7 +1379,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1358,7 +1395,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1374,7 +1411,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1390,7 +1427,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1406,7 +1443,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1422,7 +1459,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1438,7 +1475,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1454,7 +1491,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1470,7 +1507,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1486,7 +1523,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1502,7 +1539,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1526,14 +1563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab3_Project_Tracker_Rev2.xlsx
+++ b/Lab3_Project_Tracker_Rev2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\space\Desktop\Data Mining\awesomedataminers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\General\MSDS 7331\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84D9BB-D539-42B7-95A5-B1EDFB1BD0C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Task Name</t>
   </si>
@@ -179,12 +178,18 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -408,6 +413,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +942,9 @@
       <c r="D3" s="18">
         <v>43548</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>100</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
@@ -958,9 +968,15 @@
       <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="18">
+        <v>43548</v>
+      </c>
+      <c r="D4" s="18">
+        <v>43548</v>
+      </c>
+      <c r="E4" s="12">
+        <v>100</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -974,9 +990,15 @@
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="18">
+        <v>43548</v>
+      </c>
+      <c r="D5" s="18">
+        <v>43548</v>
+      </c>
+      <c r="E5" s="12">
+        <v>100</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -990,9 +1012,15 @@
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="18">
+        <v>43548</v>
+      </c>
+      <c r="D6" s="18">
+        <v>43548</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1012,14 +1040,24 @@
       <c r="D7" s="21">
         <v>43554</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="E7" s="13">
+        <v>80</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="I7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1035,13 +1073,21 @@
         <v>43554</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1050,14 +1096,28 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="21">
+        <v>43552</v>
+      </c>
+      <c r="D9" s="21">
+        <v>43554</v>
+      </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="F9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1066,14 +1126,30 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="C10" s="22">
+        <v>43548</v>
+      </c>
+      <c r="D10" s="22">
+        <v>43554</v>
+      </c>
+      <c r="E10" s="13">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1082,14 +1158,30 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="C11" s="22">
+        <v>43548</v>
+      </c>
+      <c r="D11" s="22">
+        <v>43554</v>
+      </c>
+      <c r="E11" s="13">
+        <v>100</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1098,14 +1190,30 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="C12" s="22">
+        <v>43548</v>
+      </c>
+      <c r="D12" s="22">
+        <v>43554</v>
+      </c>
+      <c r="E12" s="13">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1114,14 +1222,30 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="C13" s="22">
+        <v>43548</v>
+      </c>
+      <c r="D13" s="22">
+        <v>43554</v>
+      </c>
+      <c r="E13" s="13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1130,14 +1254,30 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="C14" s="22">
+        <v>43548</v>
+      </c>
+      <c r="D14" s="22">
+        <v>43554</v>
+      </c>
+      <c r="E14" s="13">
+        <v>100</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1563,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Lab3_Project_Tracker_Rev2.xlsx
+++ b/Lab3_Project_Tracker_Rev2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
   <si>
     <t>Task Name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Evaluate and finalize the hyperparameters (if applicable)</t>
   </si>
   <si>
-    <t>Fit the model</t>
-  </si>
-  <si>
     <t>Run prediction (if applicable)</t>
   </si>
   <si>
@@ -184,6 +181,24 @@
   </si>
   <si>
     <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>Use Clustering to improve classification Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore methodology for model </t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>Agglomerative hierarchical clustering</t>
+  </si>
+  <si>
+    <t>DB Scan</t>
+  </si>
+  <si>
+    <t>Gaussian Mixture</t>
   </si>
 </sst>
 </file>
@@ -362,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -418,6 +433,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +461,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>300207</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>151424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -483,15 +505,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>208762</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>73315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -527,15 +549,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>197334</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>26501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -869,17 +891,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -890,7 +912,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -934,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="18">
         <v>43547</v>
@@ -966,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="18">
         <v>43548</v>
@@ -988,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="18">
         <v>43548</v>
@@ -1010,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="18">
         <v>43548</v>
@@ -1037,23 +1059,23 @@
       <c r="C7" s="21">
         <v>43552</v>
       </c>
-      <c r="D7" s="21">
-        <v>43554</v>
+      <c r="D7" s="18">
+        <v>43561</v>
       </c>
       <c r="E7" s="13">
         <v>80</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>13</v>
@@ -1069,21 +1091,21 @@
       <c r="C8" s="21">
         <v>43552</v>
       </c>
-      <c r="D8" s="21">
-        <v>43554</v>
+      <c r="D8" s="18">
+        <v>43561</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>13</v>
@@ -1099,21 +1121,21 @@
       <c r="C9" s="21">
         <v>43552</v>
       </c>
-      <c r="D9" s="21">
-        <v>43554</v>
+      <c r="D9" s="18">
+        <v>43561</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>13</v>
@@ -1136,7 +1158,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>13</v>
@@ -1145,10 +1167,10 @@
         <v>13</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1168,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>13</v>
@@ -1177,10 +1199,10 @@
         <v>13</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1200,7 +1222,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>13</v>
@@ -1209,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1232,7 +1254,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>13</v>
@@ -1241,10 +1263,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1252,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="22">
         <v>43548</v>
@@ -1264,7 +1286,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>13</v>
@@ -1273,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1284,11 +1306,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="22">
+        <v>43548</v>
+      </c>
+      <c r="D15" s="22">
+        <v>43555</v>
+      </c>
+      <c r="E15" s="13">
+        <v>100</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1300,42 +1328,68 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D16" s="22">
+        <v>43561</v>
+      </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D17" s="18">
+        <v>43561</v>
+      </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
+      <c r="F17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1345,77 +1399,131 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D19" s="18">
+        <v>43561</v>
+      </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D20" s="18">
+        <v>43561</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="F20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D21" s="18">
+        <v>43561</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D22" s="18">
+        <v>43561</v>
+      </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="F22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -1425,77 +1533,131 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D24" s="18">
+        <v>43561</v>
+      </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="F24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D25" s="18">
+        <v>43561</v>
+      </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
+      <c r="F25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D26" s="18">
+        <v>43561</v>
+      </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D27" s="18">
+        <v>43561</v>
+      </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
+      <c r="F27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -1505,77 +1667,131 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D29" s="18">
+        <v>43561</v>
+      </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
+      <c r="F29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D30" s="18">
+        <v>43561</v>
+      </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+      <c r="F30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D31" s="18">
+        <v>43561</v>
+      </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="22">
+        <v>43555</v>
+      </c>
+      <c r="D32" s="18">
+        <v>43561</v>
+      </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
+      <c r="F32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -1585,115 +1801,375 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>41</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>42</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="18">
+        <v>43568</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>50</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="25">
+        <v>43569</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
